--- a/excelFile/output.xlsx
+++ b/excelFile/output.xlsx
@@ -227,23 +227,6 @@
   </si>
   <si>
     <t>About PolicyPremium BreakupCashless Garages
-Base cover
-Basic Own Damage Premium
-₹37,590
-Third Party Cover Premium
-₹10,640
-Discounts
-Other Discounts
--₹33,831
-Premium Details
-Package Premium
-₹14,399
-GST@18%
-₹2,592
-You Pay
-Total savings ₹33,831
-₹16,991
-GST inc.
 Car value (IDV)
 ₹11,78,000
 Premium amount

--- a/excelFile/output.xlsx
+++ b/excelFile/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Companay Provider Name</t>
   </si>
@@ -224,14 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">Car Quotation </t>
-  </si>
-  <si>
-    <t>About PolicyPremium BreakupCashless Garages
-Car value (IDV)
-₹11,78,000
-Premium amount
-₹14,399
-Proceed to buy</t>
   </si>
 </sst>
 </file>
@@ -653,9 +645,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>70</v>
-      </c>
+      <c r="A2" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/excelFile/output.xlsx
+++ b/excelFile/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Companay Provider Name</t>
   </si>
@@ -55,7 +55,200 @@
     <t>Health Insurance List</t>
   </si>
   <si>
+    <t>Health QuBE Basic</t>
+  </si>
+  <si>
+    <t>Health QuBE Comprehensive</t>
+  </si>
+  <si>
+    <t>Health QuBE SuperSaver</t>
+  </si>
+  <si>
+    <t>Arogya Sanjeevani</t>
+  </si>
+  <si>
+    <t>1Cr SuperSaver</t>
+  </si>
+  <si>
+    <t>Health Gain</t>
+  </si>
+  <si>
+    <t>Next Gen</t>
+  </si>
+  <si>
+    <t>Lifeline Supreme</t>
+  </si>
+  <si>
+    <t>Yuva Bharat Gold Health Policy</t>
+  </si>
+  <si>
+    <t>Smart Health Pro</t>
+  </si>
+  <si>
+    <t>Star Comprehensive</t>
+  </si>
+  <si>
+    <t>Young Star Silver Plan</t>
+  </si>
+  <si>
+    <t>Star Health Assure Insurance Policy</t>
+  </si>
+  <si>
+    <t>Young Star Gold Plan</t>
+  </si>
+  <si>
+    <t>Star Comprehensive with PED Buyback Rider</t>
+  </si>
+  <si>
+    <t>Medi Classic</t>
+  </si>
+  <si>
+    <t>Diabetes Safe Plan-B</t>
+  </si>
+  <si>
+    <t>Digi Pro</t>
+  </si>
+  <si>
+    <t>Zuno Health Insurance Gold</t>
+  </si>
+  <si>
+    <t>Activ One</t>
+  </si>
+  <si>
+    <t>Activ Fit Plus</t>
+  </si>
+  <si>
+    <t>Activ Health Platinum Enhanced</t>
+  </si>
+  <si>
+    <t>Activ Health Platinum Essential</t>
+  </si>
+  <si>
+    <t>1 Cr Sum Insured **</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond with Super NCB and Unlimited Reload</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond with Unlimited Reload</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond with Super NCB</t>
+  </si>
+  <si>
+    <t>Activ Assure Combo</t>
+  </si>
+  <si>
+    <t>Flexi Health</t>
+  </si>
+  <si>
+    <t>ReAssure 2.0 Bronze+ (Direct)</t>
+  </si>
+  <si>
+    <t>Individual Health Protector</t>
+  </si>
+  <si>
+    <t>Care Supreme Direct</t>
+  </si>
+  <si>
+    <t>NCB Super Premium</t>
+  </si>
+  <si>
+    <t>Care plus</t>
+  </si>
+  <si>
+    <t>Care Advantage</t>
+  </si>
+  <si>
+    <t>Care</t>
+  </si>
+  <si>
+    <t>Care Freedom</t>
+  </si>
+  <si>
+    <t>Care Heart</t>
+  </si>
+  <si>
+    <t>Care Freedom for Diabetes</t>
+  </si>
+  <si>
+    <t>Joy Tomorrow</t>
+  </si>
+  <si>
+    <t>Care Supreme</t>
+  </si>
+  <si>
+    <t>Individual Health Guard - Gold</t>
+  </si>
+  <si>
+    <t>Prime – Advantage</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Prime – Protect</t>
+  </si>
+  <si>
+    <t>Prime Active (Diabetes/ BP/ Asthma)</t>
+  </si>
+  <si>
+    <t>ProHealth - Plus</t>
+  </si>
+  <si>
+    <t>ProHealth - Protect</t>
+  </si>
+  <si>
+    <t>Prime Protect - Assure</t>
+  </si>
+  <si>
+    <t>Optima Secure</t>
+  </si>
+  <si>
+    <t>Arogya Supreme</t>
+  </si>
+  <si>
+    <t>Medicare Premier</t>
+  </si>
+  <si>
+    <t>Global Combo</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Medicare Plus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Car Quotation </t>
+  </si>
+  <si>
+    <t>About PolicyPremium BreakupCashless Garages
+Base cover
+Basic Own Damage Premium
+₹37,590
+Third Party Cover Premium
+₹10,640
+Discounts
+Other Discounts
+-₹33,831
+Premium Details
+Package Premium
+₹14,399
+GST@18%
+₹2,592
+You Pay
+Total savings ₹33,831
+₹16,991
+GST inc.
+Car value (IDV)
+₹11,78,000
+Premium amount
+₹14,399
+Proceed to buy</t>
   </si>
 </sst>
 </file>
@@ -157,7 +350,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -166,6 +359,296 @@
     <row r="1">
       <c r="A1" t="s" s="0">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -183,11 +666,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" t="s" s="0">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/excelFile/output.xlsx
+++ b/excelFile/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Companay Provider Name</t>
   </si>
@@ -25,35 +25,37 @@
     <t>Price</t>
   </si>
   <si>
+    <t>National Insurance</t>
+  </si>
+  <si>
+    <t>Overseas Business &amp; Holiday</t>
+  </si>
+  <si>
+    <t>₹2,188</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>Travel Secure</t>
+  </si>
+  <si>
+    <t>₹2,462</t>
+  </si>
+  <si>
+    <t>Niva Bupa (formerly known as Max Bupa)</t>
+  </si>
+  <si>
+    <t>Travel Assure</t>
+  </si>
+  <si>
+    <t>₹2,564</t>
+  </si>
+  <si>
     <t>Health Insurance List</t>
   </si>
   <si>
     <t xml:space="preserve">Car Quotation </t>
-  </si>
-  <si>
-    <t>About PolicyPremium BreakupCashless Garages
-Base cover
-Basic Own Damage Premium
-₹37,590
-Third Party Cover Premium
-₹10,640
-Discounts
-Other Discounts
--₹33,831
-Premium Details
-Package Premium
-₹14,399
-GST@18%
-₹2,592
-You Pay
-Total savings ₹33,831
-₹16,991
-GST inc.
-Car value (IDV)
-₹11,78,000
-Premium amount
-₹14,399
-Proceed to buy</t>
   </si>
 </sst>
 </file>
@@ -98,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -113,6 +115,39 @@
       </c>
       <c r="C1" t="s" s="0">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -130,7 +165,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -148,13 +183,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
+      <c r="A2" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/excelFile/output.xlsx
+++ b/excelFile/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Companay Provider Name</t>
   </si>
@@ -53,6 +53,171 @@
   </si>
   <si>
     <t>Health Insurance List</t>
+  </si>
+  <si>
+    <t>Health QuBE Basic</t>
+  </si>
+  <si>
+    <t>Health QuBE Comprehensive</t>
+  </si>
+  <si>
+    <t>Health QuBE SuperSaver</t>
+  </si>
+  <si>
+    <t>Arogya Sanjeevani</t>
+  </si>
+  <si>
+    <t>1Cr SuperSaver</t>
+  </si>
+  <si>
+    <t>Health Gain</t>
+  </si>
+  <si>
+    <t>Next Gen</t>
+  </si>
+  <si>
+    <t>Lifeline Supreme</t>
+  </si>
+  <si>
+    <t>Yuva Bharat Gold Health Policy</t>
+  </si>
+  <si>
+    <t>Smart Health Pro</t>
+  </si>
+  <si>
+    <t>Star Comprehensive</t>
+  </si>
+  <si>
+    <t>Young Star Silver Plan</t>
+  </si>
+  <si>
+    <t>Star Health Assure Insurance Policy</t>
+  </si>
+  <si>
+    <t>Young Star Gold Plan</t>
+  </si>
+  <si>
+    <t>Star Comprehensive with PED Buyback Rider</t>
+  </si>
+  <si>
+    <t>Medi Classic</t>
+  </si>
+  <si>
+    <t>Diabetes Safe Plan-B</t>
+  </si>
+  <si>
+    <t>Digi Pro</t>
+  </si>
+  <si>
+    <t>Zuno Health Insurance Gold</t>
+  </si>
+  <si>
+    <t>Activ One</t>
+  </si>
+  <si>
+    <t>Activ Fit Plus</t>
+  </si>
+  <si>
+    <t>Activ Health Platinum Enhanced</t>
+  </si>
+  <si>
+    <t>Activ Health Platinum Essential</t>
+  </si>
+  <si>
+    <t>1 Cr Sum Insured **</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond with Super NCB and Unlimited Reload</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond with Unlimited Reload</t>
+  </si>
+  <si>
+    <t>Activ Assure - Diamond with Super NCB</t>
+  </si>
+  <si>
+    <t>Activ Assure Combo</t>
+  </si>
+  <si>
+    <t>Flexi Health</t>
+  </si>
+  <si>
+    <t>ReAssure 2.0 Bronze+ (Direct)</t>
+  </si>
+  <si>
+    <t>Individual Health Protector</t>
+  </si>
+  <si>
+    <t>Care Supreme Direct</t>
+  </si>
+  <si>
+    <t>NCB Super Premium</t>
+  </si>
+  <si>
+    <t>Care plus</t>
+  </si>
+  <si>
+    <t>Care Advantage</t>
+  </si>
+  <si>
+    <t>Care</t>
+  </si>
+  <si>
+    <t>Care Freedom</t>
+  </si>
+  <si>
+    <t>Care Heart</t>
+  </si>
+  <si>
+    <t>Care Freedom for Diabetes</t>
+  </si>
+  <si>
+    <t>Joy Tomorrow</t>
+  </si>
+  <si>
+    <t>Care Supreme</t>
+  </si>
+  <si>
+    <t>Individual Health Guard - Gold</t>
+  </si>
+  <si>
+    <t>Prime – Advantage</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Prime – Protect</t>
+  </si>
+  <si>
+    <t>Prime Active (Diabetes/ BP/ Asthma)</t>
+  </si>
+  <si>
+    <t>ProHealth - Plus</t>
+  </si>
+  <si>
+    <t>ProHealth - Protect</t>
+  </si>
+  <si>
+    <t>Prime Protect - Assure</t>
+  </si>
+  <si>
+    <t>Optima Secure</t>
+  </si>
+  <si>
+    <t>Medicare Premier</t>
+  </si>
+  <si>
+    <t>Global Combo</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Medicare Plus</t>
   </si>
   <si>
     <t xml:space="preserve">Car Quotation </t>
@@ -157,7 +322,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -166,6 +331,291 @@
     <row r="1">
       <c r="A1" t="s" s="0">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -183,7 +633,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">

--- a/excelFile/output.xlsx
+++ b/excelFile/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Companay Provider Name</t>
   </si>
@@ -34,15 +34,6 @@
     <t>₹2,188</t>
   </si>
   <si>
-    <t>Bajaj Allianz</t>
-  </si>
-  <si>
-    <t>Travel Secure</t>
-  </si>
-  <si>
-    <t>₹2,462</t>
-  </si>
-  <si>
     <t>Niva Bupa (formerly known as Max Bupa)</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
     <t>₹2,564</t>
   </si>
   <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Travel Care Individual</t>
+  </si>
+  <si>
+    <t>₹3,082</t>
+  </si>
+  <si>
     <t>Health Insurance List</t>
   </si>
   <si>
@@ -106,40 +106,22 @@
     <t>Diabetes Safe Plan-B</t>
   </si>
   <si>
+    <t>Activ One</t>
+  </si>
+  <si>
     <t>Digi Pro</t>
   </si>
   <si>
     <t>Zuno Health Insurance Gold</t>
   </si>
   <si>
-    <t>Activ One</t>
-  </si>
-  <si>
-    <t>Activ Fit Plus</t>
-  </si>
-  <si>
-    <t>Activ Health Platinum Enhanced</t>
-  </si>
-  <si>
-    <t>Activ Health Platinum Essential</t>
-  </si>
-  <si>
-    <t>1 Cr Sum Insured **</t>
-  </si>
-  <si>
-    <t>Activ Assure - Diamond</t>
-  </si>
-  <si>
-    <t>Activ Assure - Diamond with Super NCB and Unlimited Reload</t>
-  </si>
-  <si>
-    <t>Activ Assure - Diamond with Unlimited Reload</t>
-  </si>
-  <si>
-    <t>Activ Assure - Diamond with Super NCB</t>
-  </si>
-  <si>
-    <t>Activ Assure Combo</t>
+    <t>Zuno Health Insurance- Platinum (Health 241 Add-on)</t>
+  </si>
+  <si>
+    <t>Zuno Health Insurance Platinum</t>
+  </si>
+  <si>
+    <t>Zuno Health Insurance- Gold (Health 241 Add-on)</t>
   </si>
   <si>
     <t>Flexi Health</t>
@@ -184,12 +166,21 @@
     <t>Individual Health Guard - Gold</t>
   </si>
   <si>
+    <t>Optima Secure</t>
+  </si>
+  <si>
+    <t>Optima Restore</t>
+  </si>
+  <si>
+    <t>Medicare Premier</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
     <t>Prime – Advantage</t>
   </si>
   <si>
-    <t>Lifetime</t>
-  </si>
-  <si>
     <t>Prime – Protect</t>
   </si>
   <si>
@@ -203,21 +194,6 @@
   </si>
   <si>
     <t>Prime Protect - Assure</t>
-  </si>
-  <si>
-    <t>Optima Secure</t>
-  </si>
-  <si>
-    <t>Medicare Premier</t>
-  </si>
-  <si>
-    <t>Global Combo</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>Medicare Plus</t>
   </si>
   <si>
     <t xml:space="preserve">Car Quotation </t>
@@ -322,7 +298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -510,37 +486,37 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
@@ -576,46 +552,6 @@
     <row r="50">
       <c r="A50" t="s" s="0">
         <v>59</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +569,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">

--- a/excelFile/output.xlsx
+++ b/excelFile/output.xlsx
@@ -25,13 +25,13 @@
     <t>Price</t>
   </si>
   <si>
-    <t>National Insurance</t>
-  </si>
-  <si>
-    <t>Overseas Business &amp; Holiday</t>
-  </si>
-  <si>
-    <t>₹2,188</t>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>Travel Secure</t>
+  </si>
+  <si>
+    <t>₹2,462</t>
   </si>
   <si>
     <t>Niva Bupa (formerly known as Max Bupa)</t>
